--- a/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Motor_TypeOneCoordination_19DX101.xlsx
+++ b/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Motor_TypeOneCoordination_19DX101.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="电动机（分立元件）" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="221">
   <si>
     <t>断路器规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -778,10 +778,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接触器规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Installed Capacity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -863,6 +859,50 @@
   </si>
   <si>
     <t>CJ20-225/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1208,20 +1248,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1244,7 +1284,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1267,7 +1307,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -1290,7 +1330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -1313,7 +1353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -1336,7 +1376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -1359,7 +1399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -1382,7 +1422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -1405,7 +1445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1428,7 +1468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -1451,7 +1491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -1474,7 +1514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -1497,7 +1537,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1520,7 +1560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -1543,7 +1583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -1566,7 +1606,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -1589,7 +1629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -1612,7 +1652,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -1635,7 +1675,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -1658,7 +1698,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -1681,7 +1721,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -1704,7 +1744,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -1727,7 +1767,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -1750,7 +1790,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132</v>
       </c>
@@ -1773,7 +1813,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>160</v>
       </c>
@@ -1796,7 +1836,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>200</v>
       </c>
@@ -1834,15 +1874,15 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1859,7 +1899,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1876,7 +1916,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -1894,7 +1934,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -1912,7 +1952,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -1930,7 +1970,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -1948,7 +1988,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -1966,7 +2006,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -1984,7 +2024,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -2002,7 +2042,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -2020,7 +2060,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -2038,7 +2078,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -2056,7 +2096,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2074,7 +2114,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -2092,7 +2132,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -2110,7 +2150,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -2128,7 +2168,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -2146,7 +2186,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -2164,7 +2204,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -2182,7 +2222,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -2200,7 +2240,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -2218,7 +2258,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -2236,7 +2276,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -2265,21 +2305,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2293,25 +2333,25 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2343,7 +2383,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -2375,7 +2415,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -2407,7 +2447,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -2439,7 +2479,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -2471,7 +2511,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -2503,7 +2543,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -2535,7 +2575,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -2567,7 +2607,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -2599,7 +2639,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -2631,7 +2671,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -2663,7 +2703,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2695,7 +2735,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -2727,7 +2767,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -2759,7 +2799,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -2791,7 +2831,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -2823,7 +2863,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -2855,7 +2895,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -2887,7 +2927,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -2919,7 +2959,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -2951,7 +2991,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -2983,7 +3023,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -3015,7 +3055,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132</v>
       </c>
@@ -3047,7 +3087,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>160</v>
       </c>
@@ -3079,7 +3119,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>200</v>
       </c>
@@ -3111,7 +3151,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>250</v>
       </c>
@@ -3143,7 +3183,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>315</v>
       </c>
@@ -3187,19 +3227,19 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3213,19 +3253,19 @@
         <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3251,7 +3291,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -3277,7 +3317,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -3303,7 +3343,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -3329,7 +3369,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -3355,7 +3395,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -3381,7 +3421,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -3407,7 +3447,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -3433,7 +3473,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -3459,7 +3499,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -3485,7 +3525,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -3511,7 +3551,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3537,7 +3577,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -3563,7 +3603,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -3589,7 +3629,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -3615,7 +3655,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -3641,7 +3681,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -3667,7 +3707,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -3693,7 +3733,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -3719,7 +3759,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -3745,7 +3785,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -3771,7 +3811,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -3809,17 +3849,17 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>186</v>
       </c>
@@ -3830,30 +3870,30 @@
         <v>188</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -3864,14 +3904,14 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -3882,14 +3922,14 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -3900,14 +3940,14 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -3918,14 +3958,14 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -3936,14 +3976,14 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -3954,14 +3994,14 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -3972,14 +4012,14 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -3990,14 +4030,14 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -4008,14 +4048,14 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -4026,14 +4066,14 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4044,14 +4084,14 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -4062,14 +4102,14 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -4080,14 +4120,14 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -4098,14 +4138,14 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -4116,14 +4156,14 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -4134,14 +4174,14 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -4152,14 +4192,14 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -4170,14 +4210,14 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -4188,14 +4228,14 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -4206,14 +4246,14 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -4224,14 +4264,14 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132</v>
       </c>
@@ -4242,11 +4282,11 @@
         <v>1549</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>160</v>
       </c>
@@ -4257,11 +4297,11 @@
         <v>1960</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>200</v>
       </c>
@@ -4272,7 +4312,7 @@
         <v>2342</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H26" s="1"/>
     </row>

--- a/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Motor_TypeOneCoordination_19DX101.xlsx
+++ b/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Motor_TypeOneCoordination_19DX101.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04BDCCC-0E1E-4F86-AF67-67A9E1C56E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="电动机（分立元件）" sheetId="1" r:id="rId1"/>
     <sheet name="电动机（CPS）" sheetId="5" r:id="rId2"/>
     <sheet name="电动机（分立元件星三角启动）" sheetId="2" r:id="rId3"/>
     <sheet name="电动机（CPS星三角启动）" sheetId="4" r:id="rId4"/>
-    <sheet name="双速电动机（D-YY）" sheetId="7" r:id="rId5"/>
+    <sheet name="双速电动机（分立元件D-YY）" sheetId="9" r:id="rId5"/>
+    <sheet name="双速电动机（分立元件Y-Y）" sheetId="7" r:id="rId6"/>
+    <sheet name="双速电动机（CPS）" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="252">
   <si>
     <t>断路器规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,22 +444,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CJ20-110/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-145/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CJ20-185/3P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CJ20-210/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CJ20-260/3P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,10 +468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CJ20-300/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JR20-16 8/12A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -549,61 +536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6x95+E70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7x2.5</t>
-  </si>
-  <si>
-    <t>7x2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Conductor1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -628,65 +560,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5x2.5</t>
-  </si>
-  <si>
-    <t>5x2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5x6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5x10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5x16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x25+2x16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x35+2x16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x50+2x25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x70+2x35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x95+2x50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x120+2x70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2x(3x70+2x35)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2x(3x120+2x70)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CPS规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -790,78 +663,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QAC3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-9/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-9/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-12/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-18/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-25/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-32/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-40/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-50/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-65/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-80/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-80/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-95/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-110/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-150/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-185/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-225/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接触器规格1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -898,18 +699,325 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接触器规格1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接触器规格3</t>
+    <t>电机功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Installed Capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calculate Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starting Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSD32-M2.5/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M4/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M6/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M12/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M16/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M25/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M32/3P</t>
+  </si>
+  <si>
+    <t>CPSD45-M40/3P</t>
+  </si>
+  <si>
+    <t>CPSD63-M50/3P</t>
+  </si>
+  <si>
+    <t>CPSD63-M63/3P</t>
+  </si>
+  <si>
+    <t>CPSD100-M80/3P</t>
+  </si>
+  <si>
+    <t>CPSD100-M100/3P</t>
+  </si>
+  <si>
+    <t>CPSD125-M125/3P</t>
+  </si>
+  <si>
+    <t>CPSD160-M160/3P</t>
+  </si>
+  <si>
+    <t>CPSD225-M225/3P</t>
+  </si>
+  <si>
+    <t>Conductor2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x6+E6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x10+E10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x16+E16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x70+E35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x95+E50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x95+E50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x120+E70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x(3x70+E35)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x(3x70)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x(3x120+E70)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x(3x120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conductor1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x4+E4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x6+E6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x10+E10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x16+E16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x25+E16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x35+E16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x50+E25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x70+E35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x95+E50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x120+E70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conductor2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conductor1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5</t>
+  </si>
+  <si>
+    <t>3x2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x6</t>
+  </si>
+  <si>
+    <t>3x16</t>
+  </si>
+  <si>
+    <t>3x25</t>
+  </si>
+  <si>
+    <t>3x35</t>
+  </si>
+  <si>
+    <t>3x50</t>
+  </si>
+  <si>
+    <t>3x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x150+E95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x240+E120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-115/3P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -1245,11 +1353,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1304,7 +1412,7 @@
         <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1689,7 +1797,7 @@
         <v>75</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>51</v>
@@ -1867,11 +1975,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1893,7 +2001,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>91</v>
@@ -1910,10 +2018,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1927,7 +2035,7 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -1945,7 +2053,7 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -1963,7 +2071,7 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -1981,7 +2089,7 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -1999,7 +2107,7 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -2017,7 +2125,7 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -2035,7 +2143,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -2053,7 +2161,7 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -2071,7 +2179,7 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
@@ -2089,7 +2197,7 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>33</v>
@@ -2107,7 +2215,7 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>34</v>
@@ -2125,7 +2233,7 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>35</v>
@@ -2143,7 +2251,7 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>35</v>
@@ -2161,7 +2269,7 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>36</v>
@@ -2179,7 +2287,7 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>59</v>
@@ -2197,7 +2305,7 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>60</v>
@@ -2215,7 +2323,7 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>61</v>
@@ -2233,7 +2341,7 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>62</v>
@@ -2251,7 +2359,7 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>63</v>
@@ -2269,7 +2377,7 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>64</v>
@@ -2287,7 +2395,7 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>65</v>
@@ -2302,11 +2410,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2333,22 +2441,22 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2377,10 +2485,10 @@
         <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2409,10 +2517,10 @@
         <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2441,10 +2549,10 @@
         <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2473,10 +2581,10 @@
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2505,10 +2613,10 @@
         <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2537,10 +2645,10 @@
         <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2569,10 +2677,10 @@
         <v>23</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2601,10 +2709,10 @@
         <v>24</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2633,10 +2741,10 @@
         <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2665,10 +2773,10 @@
         <v>26</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>131</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2694,13 +2802,13 @@
         <v>11</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>131</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2726,13 +2834,13 @@
         <v>96</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2758,13 +2866,13 @@
         <v>97</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>132</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2790,13 +2898,13 @@
         <v>14</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>132</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2822,13 +2930,13 @@
         <v>14</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>133</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2854,13 +2962,13 @@
         <v>14</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2886,13 +2994,13 @@
         <v>99</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2918,13 +3026,13 @@
         <v>102</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>136</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2950,13 +3058,13 @@
         <v>18</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>137</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2973,22 +3081,22 @@
         <v>73</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>104</v>
+        <v>251</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>104</v>
+        <v>251</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>138</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -3005,22 +3113,22 @@
         <v>72</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>139</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3037,22 +3145,22 @@
         <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>101</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3069,22 +3177,22 @@
         <v>68</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>104</v>
+        <v>251</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>141</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -3101,22 +3209,22 @@
         <v>69</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -3133,22 +3241,22 @@
         <v>70</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3162,25 +3270,25 @@
         <v>2784</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3194,7 +3302,7 @@
         <v>3906</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>48</v>
@@ -3203,16 +3311,16 @@
         <v>48</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3223,11 +3331,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3250,19 +3358,19 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3276,7 +3384,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>92</v>
@@ -3285,10 +3393,10 @@
         <v>93</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3302,7 +3410,7 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -3311,10 +3419,10 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3328,7 +3436,7 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -3337,10 +3445,10 @@
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3354,7 +3462,7 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -3363,10 +3471,10 @@
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3380,7 +3488,7 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -3389,10 +3497,10 @@
         <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3406,7 +3514,7 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -3415,10 +3523,10 @@
         <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3432,7 +3540,7 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -3441,10 +3549,10 @@
         <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3458,7 +3566,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -3467,10 +3575,10 @@
         <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3484,7 +3592,7 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
@@ -3493,10 +3601,10 @@
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3510,7 +3618,7 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>95</v>
@@ -3519,10 +3627,10 @@
         <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>131</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3536,7 +3644,7 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>97</v>
@@ -3545,10 +3653,10 @@
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>131</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3562,7 +3670,7 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>98</v>
@@ -3571,10 +3679,10 @@
         <v>96</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3588,7 +3696,7 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -3597,10 +3705,10 @@
         <v>97</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>132</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3614,7 +3722,7 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>99</v>
@@ -3623,10 +3731,10 @@
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>132</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3640,7 +3748,7 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>100</v>
@@ -3649,10 +3757,10 @@
         <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>133</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3666,7 +3774,7 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>102</v>
@@ -3675,10 +3783,10 @@
         <v>14</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -3692,7 +3800,7 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>18</v>
@@ -3701,10 +3809,10 @@
         <v>99</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3718,19 +3826,19 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>102</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>136</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -3744,7 +3852,7 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>101</v>
@@ -3753,10 +3861,10 @@
         <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>137</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3770,19 +3878,19 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>104</v>
+        <v>251</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>138</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3796,19 +3904,19 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>139</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3822,19 +3930,19 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3845,55 +3953,62 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -3904,14 +4019,17 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -3922,14 +4040,17 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -3940,14 +4061,17 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -3958,14 +4082,17 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -3976,14 +4103,17 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -3994,14 +4124,17 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -4012,14 +4145,17 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -4030,14 +4166,17 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -4048,14 +4187,17 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -4066,14 +4208,17 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4084,14 +4229,17 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -4102,14 +4250,17 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -4120,14 +4271,17 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -4138,14 +4292,17 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -4156,14 +4313,17 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -4174,14 +4334,17 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -4192,14 +4355,17 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -4210,14 +4376,17 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -4228,14 +4397,17 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -4246,14 +4418,17 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -4264,14 +4439,17 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132</v>
       </c>
@@ -4281,12 +4459,18 @@
       <c r="C24" s="1">
         <v>1549</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>160</v>
       </c>
@@ -4296,12 +4480,18 @@
       <c r="C25" s="1">
         <v>1960</v>
       </c>
+      <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>200</v>
       </c>
@@ -4311,14 +4501,1082 @@
       <c r="C26" s="1">
         <v>2342</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E26" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H26" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="C6" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.53</v>
+      </c>
+      <c r="C7" s="1">
+        <v>23.3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="C8" s="1">
+        <v>32.4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6.58</v>
+      </c>
+      <c r="C9" s="1">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="C10" s="1">
+        <v>60.1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>75.5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>108</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>159</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>29.9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>221</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>37.1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>293</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>387</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1">
+        <v>58.8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>382</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1">
+        <v>71.3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>492</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1">
+        <v>87.4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>655</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1">
+        <v>105</v>
+      </c>
+      <c r="C20" s="1">
+        <v>745</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>75</v>
+      </c>
+      <c r="B21" s="1">
+        <v>142</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1107</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>90</v>
+      </c>
+      <c r="B22" s="1">
+        <v>167</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1302</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>110</v>
+      </c>
+      <c r="B23" s="1">
+        <v>203</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1319</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>132</v>
+      </c>
+      <c r="B24" s="1">
+        <v>242</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1549</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>160</v>
+      </c>
+      <c r="B25" s="1">
+        <v>297</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1960</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>200</v>
+      </c>
+      <c r="B26" s="1">
+        <v>366</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2342</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="C6" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.53</v>
+      </c>
+      <c r="C7" s="1">
+        <v>23.3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="C8" s="1">
+        <v>32.4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6.58</v>
+      </c>
+      <c r="C9" s="1">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="C10" s="1">
+        <v>60.1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>75.5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>108</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>159</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>29.9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>221</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>37.1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>293</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>387</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1">
+        <v>58.8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>382</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1">
+        <v>71.3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>492</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1">
+        <v>87.4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>655</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1">
+        <v>105</v>
+      </c>
+      <c r="C20" s="1">
+        <v>745</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>75</v>
+      </c>
+      <c r="B21" s="1">
+        <v>142</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1107</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>90</v>
+      </c>
+      <c r="B22" s="1">
+        <v>167</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1302</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>110</v>
+      </c>
+      <c r="B23" s="1">
+        <v>203</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1319</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Motor_TypeOneCoordination_19DX101.xlsx
+++ b/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Motor_TypeOneCoordination_19DX101.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04BDCCC-0E1E-4F86-AF67-67A9E1C56E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
   </bookViews>
   <sheets>
     <sheet name="电动机（分立元件）" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="362">
   <si>
     <t>断路器规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,15 +71,1186 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CJ20-25/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-32/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-50/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-65/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-10 0.8/1.2A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-10 1.2/1.8A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-10 5/7A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-10 7/10A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-63 24/36A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x4+E4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x6+E6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x10+E10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x16+E16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-95/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-150/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-185/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-160 100/130A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-630 320/480A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x25+E16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x70+E35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x95+E50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x120+E70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x(3x70+E35)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x(3x120+E70)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB400-EL315/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB400-EL400/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB250-MA250/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB250-MA200/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB160-MA160/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB160-MA125/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB100-MA100/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB100-MA80/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB100-MA63/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB100-MA50/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB100-MA40/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB100-MA32/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB100-MA25/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCB63-MA16/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCB63-MA10/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCB63-MA6/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCB63-MA2.5/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QAC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QAC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QAC3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-12/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-16/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-20/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-40/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-260/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-500/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-16 8/12A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-25 17/25A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-63 32/47A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-160 74/98A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-25 12/17A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-63 38/55A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-160 55/80A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-160 90/130A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-160 130/170A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-205 160/225A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-205 200/250A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-400 300/400A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conductor1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conductor2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母线槽500A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母线槽400A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母线槽630A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ32-M2.5/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ32-M6/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ32-M12/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ32-M25/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ63-M63/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ100-M100/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ125-M125/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ225-M225/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conductor</t>
+  </si>
+  <si>
+    <t>CPSJ45-M40/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Installed Capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calculate Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starting Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触器规格2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Installed Capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calculate Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starting Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSD32-M2.5/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M4/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M6/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M12/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M16/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M25/3P</t>
+  </si>
+  <si>
+    <t>CPSD32-M32/3P</t>
+  </si>
+  <si>
+    <t>CPSD45-M40/3P</t>
+  </si>
+  <si>
+    <t>CPSD63-M50/3P</t>
+  </si>
+  <si>
+    <t>CPSD63-M63/3P</t>
+  </si>
+  <si>
+    <t>CPSD100-M80/3P</t>
+  </si>
+  <si>
+    <t>CPSD100-M100/3P</t>
+  </si>
+  <si>
+    <t>CPSD125-M125/3P</t>
+  </si>
+  <si>
+    <t>CPSD160-M160/3P</t>
+  </si>
+  <si>
+    <t>CPSD225-M225/3P</t>
+  </si>
+  <si>
+    <t>Conductor2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x(3x70)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x(3x120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conductor1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x35+E16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x50+E25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conductor2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导体根数x每根导体截面积1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conductor1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5</t>
+  </si>
+  <si>
+    <t>3x6</t>
+  </si>
+  <si>
+    <t>3x16</t>
+  </si>
+  <si>
+    <t>3x25</t>
+  </si>
+  <si>
+    <t>3x35</t>
+  </si>
+  <si>
+    <t>3x50</t>
+  </si>
+  <si>
+    <t>3x150+E95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x240+E120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-115/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-10 2.6/3.8A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-10 3.2/4.8A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-10 4/6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-80/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x25+E16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x95+E50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-225/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-205 130/195A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-265/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x(3x70+E35)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB630-EL450/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-400/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x(3x120+E70)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCB63-MA2.5/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCB63-MA2.5/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-10 1.2/1.8A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCB63-MA4/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-10 1.8/2.6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-10 2.6/3.8A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCB63-MA6/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-18/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-10 3.2/4.8A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCB63-MA10/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-25/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-10 4/6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-32/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-10 5/7A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCB63-MA10/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-32/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCB63-MA16/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-16 10/14A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB100-MA25/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-40/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-16 14/18A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x4+E4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-40/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-25 21/29A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x6+E6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-63 24/36A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x10+E10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB100-MA50/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-50/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x10+E10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB100-MA63/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-65/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-63 40/55A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x16+E16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-63 55/71A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x25+E16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-95/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-160 63/84A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x35+E16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB160-MA125/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-115/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-160 85/115A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x50+E25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB160-MA125/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-150/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x70+E35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-185/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-160 130/170A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x95+E50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB250-MA250/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-205 167/250A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x120+E70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB400-EL315/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-400 200/300A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x(3x70+E35)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-330/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-400 267/400A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB630-EL450/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-400/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M2.5/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M4/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M6/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M6/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M12/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M12/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M16/3P</t>
+  </si>
+  <si>
+    <t>CPS32-M25/3P</t>
+  </si>
+  <si>
+    <t>3x4+E4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS32-M32/3P</t>
+  </si>
+  <si>
+    <t>3x6+E6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS45-M40/3P</t>
+  </si>
+  <si>
+    <t>CPS63-M50/3P</t>
+  </si>
+  <si>
+    <t>CPS63-M63/3P</t>
+  </si>
+  <si>
+    <t>3x16+E16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS100-M80/3P</t>
+  </si>
+  <si>
+    <t>3x25+E16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS100-M100/3P</t>
+  </si>
+  <si>
+    <t>CPS125-M125/3P</t>
+  </si>
+  <si>
+    <t>3x50+E25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS160-M160/3P</t>
+  </si>
+  <si>
+    <t>CPS225-M225/3P</t>
+  </si>
+  <si>
+    <t>3x2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCB63-MA4/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CJ20-9/3P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>JR20-10 1.8/2.6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCB63-MA6/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-9/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCB63-MA10/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-9/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-10 7/10A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-16/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-20/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x6+E6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-32/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-25 21/29A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-65/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-160 47/62A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-95/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB160-MA160/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-65/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB250-MA200/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-150/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-185/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-185/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-160 110/150A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-225/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母线槽250A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB630-EL500/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-300/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR20-400 200/320A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCB630-EL630/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-400/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母线槽400A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-9/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ32-M2.5/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ32-M4/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-9/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ32-M6/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ32-M12/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ32-M16/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CJ20-12/3P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CJ20-18/3P</t>
+    <t>3x4+E4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ32-M32/3P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -88,11 +1258,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CPSJ63-M50/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CJ20-32/3P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CJ20-40/3P</t>
+    <t>CJ20-25/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ100-M80/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-65/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x35+E16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-80/3P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -100,67 +1294,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CJ20-65/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-10 0.8/1.2A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-10 1.2/1.8A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-10 1.8/2.6A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-10 2.6/3.8A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-10 3.2/4.8A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-10 4/6A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-10 5/7A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-10 7/10A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-16 10/14A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-16 14/18A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-25 21/29A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-63 24/36A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-63 33/47A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-63 40/55A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x4+E4</t>
+    <t>CJ20-95/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ160-M160/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x95+E50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-150/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPSJ225-M225/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-95/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x120+E70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-9/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-12/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5+E2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-25/3P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,6 +1346,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CJ20-32/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-50/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x95+E50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-150/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-150/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ20-225/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x50+E25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x120+E70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x(3x120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>3x10+E10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,102 +1418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-80/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-95/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-110/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-150/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-185/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-225/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-265/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-330/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-400/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-63 55/71A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-160 63/84A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-160 85/115A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-160 100/130A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-160 130/170A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-205 130/195A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-205 167/250A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-400 200/300A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-400 267/400A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-630 320/480A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x25+E16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x35+E16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3x50+E25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,744 +1426,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CJ20-115/3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>3x95+E50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3x95+E50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3x120+E70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2x(3x70+E35)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2x(3x120+E70)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCCB400-EL315/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCCB400-EL400/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCCB630-EL450/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCCB250-MA250/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCCB250-MA200/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCCB160-MA160/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCCB160-MA125/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCCB160-MA125/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCCB100-MA100/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCCB100-MA80/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCCB100-MA63/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCCB100-MA50/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCCB100-MA40/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCCB100-MA32/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCCB100-MA25/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCB63-MA16/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCB63-MA10/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCB63-MA10/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCB63-MA6/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCB63-MA6/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCB63-MA4/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCB63-MA2.5/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCB63-MA2.5/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导体根数x每根导体截面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QAC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QAC2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QAC3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-12/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-12/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-16/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-20/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-32/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-40/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-95/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-50/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-75/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-185/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-260/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-260/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCCB630-EL500/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCCB630-EL630/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-500/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-16 8/12A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-25 17/25A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-25 21/29A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-63 24/36A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-63 32/47A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-160 74/98A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-25 12/17A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-63 38/55A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-160 47/62A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-160 55/80A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-160 90/130A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-160 110/150A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-160 130/170A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-205 160/225A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-205 200/250A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-400 200/320A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR20-400 300/400A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Conductor1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Conductor2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>母线槽250A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>母线槽500A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>母线槽400A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>母线槽630A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ32-M2.5/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ32-M4/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ32-M6/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ32-M12/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ32-M16/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ32-M25/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ32-M32/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ63-M50/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ63-M63/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ100-M80/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ100-M100/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ125-M125/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ160-M160/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ225-M225/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Conductor</t>
-  </si>
-  <si>
-    <t>CPSJ45-M40/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSJ45-M40/3P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算电流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动电流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Installed Capacity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calculate Current</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Starting Current</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接触器规格1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接触器规格2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接触器规格3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导体根数x每根导体截面积1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导体根数x每根导体截面积2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接触器规格1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接触器规格2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导体根数x每根导体截面积1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导体根数x每根导体截面积2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算电流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动电流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Installed Capacity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calculate Current</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Starting Current</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPSD32-M2.5/3P</t>
-  </si>
-  <si>
-    <t>CPSD32-M4/3P</t>
-  </si>
-  <si>
-    <t>CPSD32-M6/3P</t>
-  </si>
-  <si>
-    <t>CPSD32-M12/3P</t>
-  </si>
-  <si>
-    <t>CPSD32-M16/3P</t>
-  </si>
-  <si>
-    <t>CPSD32-M25/3P</t>
-  </si>
-  <si>
-    <t>CPSD32-M32/3P</t>
-  </si>
-  <si>
-    <t>CPSD45-M40/3P</t>
-  </si>
-  <si>
-    <t>CPSD63-M50/3P</t>
-  </si>
-  <si>
-    <t>CPSD63-M63/3P</t>
-  </si>
-  <si>
-    <t>CPSD100-M80/3P</t>
-  </si>
-  <si>
-    <t>CPSD100-M100/3P</t>
-  </si>
-  <si>
-    <t>CPSD125-M125/3P</t>
-  </si>
-  <si>
-    <t>CPSD160-M160/3P</t>
-  </si>
-  <si>
-    <t>CPSD225-M225/3P</t>
-  </si>
-  <si>
-    <t>Conductor2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x2.5+E2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x2.5+E2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x2.5+E2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x2.5+E2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x6+E6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x10+E10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x16+E16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x70+E35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x95+E50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x95+E50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x120+E70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2x(3x70+E35)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2x(3x70)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2x(3x120+E70)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2x(3x120)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导体根数x每根导体截面积1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导体根数x每根导体截面积2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Conductor1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x2.5+E2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x4+E4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x6+E6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x10+E10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x16+E16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x25+E16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x35+E16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x50+E25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x70+E35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x95+E50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x120+E70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Conductor2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导体根数x每根导体截面积1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Conductor1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x2.5</t>
-  </si>
-  <si>
-    <t>3x2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x6</t>
-  </si>
-  <si>
-    <t>3x16</t>
-  </si>
-  <si>
-    <t>3x25</t>
-  </si>
-  <si>
-    <t>3x35</t>
-  </si>
-  <si>
-    <t>3x50</t>
-  </si>
-  <si>
-    <t>3x10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x150+E95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x240+E120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ20-115/3P</t>
+    <t>JR20-160 33/47A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -1353,23 +1781,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1389,10 +1817,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1403,19 +1831,19 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -1426,19 +1854,19 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -1449,19 +1877,19 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -1472,19 +1900,19 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -1495,19 +1923,19 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -1518,19 +1946,19 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -1541,19 +1969,19 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1564,19 +1992,19 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -1587,19 +2015,19 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -1610,19 +2038,19 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -1633,19 +2061,19 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1656,19 +2084,19 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -1679,19 +2107,19 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -1702,19 +2130,19 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>31</v>
+        <v>361</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -1725,19 +2153,19 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -1748,19 +2176,19 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -1771,19 +2199,19 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>50</v>
+        <v>218</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -1794,19 +2222,19 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -1817,19 +2245,19 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -1840,19 +2268,19 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -1863,19 +2291,19 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -1886,19 +2314,19 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>55</v>
+        <v>231</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>132</v>
       </c>
@@ -1909,19 +2337,19 @@
         <v>1549</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>233</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>160</v>
       </c>
@@ -1932,19 +2360,19 @@
         <v>1960</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>200</v>
       </c>
@@ -1955,16 +2383,16 @@
         <v>2342</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>239</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1975,22 +2403,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2001,13 +2429,13 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2018,13 +2446,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -2035,14 +2463,14 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -2053,14 +2481,14 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>242</v>
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -2071,14 +2499,14 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>136</v>
+        <v>243</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -2089,14 +2517,14 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -2107,14 +2535,14 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>137</v>
+        <v>244</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -2125,14 +2553,14 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -2143,14 +2571,14 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -2161,14 +2589,14 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>248</v>
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -2179,14 +2607,14 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -2197,14 +2625,14 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2215,14 +2643,14 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>141</v>
+        <v>252</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -2233,14 +2661,14 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -2251,14 +2679,14 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -2269,14 +2697,14 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>257</v>
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -2287,14 +2715,14 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>144</v>
+        <v>258</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>259</v>
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -2305,14 +2733,14 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -2323,14 +2751,14 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -2341,14 +2769,14 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -2359,14 +2787,14 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>147</v>
+        <v>263</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -2377,14 +2805,14 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -2395,10 +2823,10 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -2410,24 +2838,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="A3" sqref="A3:J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2441,25 +2869,25 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2470,28 +2898,28 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -2502,7 +2930,7 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -2514,16 +2942,16 @@
         <v>10</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -2534,7 +2962,7 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -2546,16 +2974,16 @@
         <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -2566,28 +2994,28 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -2598,28 +3026,28 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>21</v>
+        <v>268</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -2630,28 +3058,28 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>269</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -2662,28 +3090,28 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -2694,28 +3122,28 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -2726,28 +3154,28 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>9</v>
+        <v>272</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -2758,28 +3186,28 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -2790,28 +3218,28 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>97</v>
+        <v>275</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2822,28 +3250,28 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>98</v>
+        <v>276</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>34</v>
+        <v>277</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -2854,28 +3282,28 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -2886,28 +3314,28 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>99</v>
+        <v>278</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>112</v>
+        <v>279</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -2918,28 +3346,28 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -2950,28 +3378,28 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -2982,28 +3410,28 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>18</v>
+        <v>281</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -3014,28 +3442,28 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>118</v>
+        <v>282</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -3046,28 +3474,28 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>101</v>
+        <v>283</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -3078,28 +3506,28 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>284</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>18</v>
+        <v>285</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -3110,28 +3538,28 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -3142,28 +3570,28 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>104</v>
+        <v>288</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>104</v>
+        <v>289</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>121</v>
+        <v>290</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>132</v>
       </c>
@@ -3174,28 +3602,28 @@
         <v>1549</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>248</v>
+        <v>161</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>160</v>
       </c>
@@ -3206,28 +3634,28 @@
         <v>1960</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>200</v>
       </c>
@@ -3238,28 +3666,28 @@
         <v>2342</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>250</v>
       </c>
@@ -3270,28 +3698,28 @@
         <v>2784</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>107</v>
+        <v>295</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>47</v>
+        <v>296</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>125</v>
+        <v>297</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>315</v>
       </c>
@@ -3302,25 +3730,25 @@
         <v>3906</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>108</v>
+        <v>298</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>48</v>
+        <v>299</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>131</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -3331,23 +3759,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="A3" sqref="A3:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3358,22 +3786,22 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3384,22 +3812,22 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -3410,22 +3838,22 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>272</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -3436,22 +3864,22 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>135</v>
+        <v>303</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -3462,22 +3890,22 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>136</v>
+        <v>304</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -3488,22 +3916,22 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>301</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>301</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -3514,22 +3942,22 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>137</v>
+        <v>306</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>9</v>
+        <v>272</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -3540,22 +3968,22 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -3566,22 +3994,22 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>138</v>
+        <v>307</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>9</v>
+        <v>308</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -3592,22 +4020,22 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>9</v>
+        <v>309</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -3618,22 +4046,22 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>139</v>
+        <v>310</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>311</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>301</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>9</v>
+        <v>309</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -3644,22 +4072,22 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>97</v>
+        <v>275</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>312</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3670,22 +4098,22 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>141</v>
+        <v>314</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -3696,22 +4124,22 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -3722,22 +4150,22 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>142</v>
+        <v>316</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>99</v>
+        <v>317</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>318</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -3748,22 +4176,22 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -3774,22 +4202,22 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -3800,22 +4228,22 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>18</v>
+        <v>321</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>60</v>
+        <v>322</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -3826,22 +4254,22 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>102</v>
+        <v>324</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -3852,22 +4280,22 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -3878,22 +4306,22 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>147</v>
+        <v>326</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>18</v>
+        <v>321</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>63</v>
+        <v>327</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -3904,22 +4332,22 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>43</v>
+        <v>328</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -3930,19 +4358,19 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>148</v>
+        <v>329</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>101</v>
+        <v>330</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>65</v>
+        <v>331</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>247</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3953,62 +4381,62 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A3" sqref="A3:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -4022,14 +4450,14 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>194</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -4040,17 +4468,17 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>332</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>194</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -4061,17 +4489,17 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>194</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>195</v>
+        <v>333</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -4082,17 +4510,17 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>194</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -4103,17 +4531,17 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>334</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -4124,17 +4552,17 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>198</v>
+        <v>335</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -4148,14 +4576,14 @@
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -4169,14 +4597,14 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>196</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -4190,14 +4618,14 @@
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>196</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -4211,14 +4639,14 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4229,17 +4657,17 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>336</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>201</v>
+        <v>337</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -4250,17 +4678,17 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -4271,17 +4699,17 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>338</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -4292,17 +4720,17 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>339</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -4313,17 +4741,17 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>59</v>
+        <v>340</v>
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -4334,17 +4762,17 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -4355,17 +4783,17 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>61</v>
+        <v>341</v>
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -4376,17 +4804,17 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -4397,17 +4825,17 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>212</v>
+        <v>34</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>211</v>
+        <v>342</v>
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -4418,17 +4846,17 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -4439,17 +4867,17 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>344</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>215</v>
+        <v>35</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>132</v>
       </c>
@@ -4460,17 +4888,17 @@
         <v>1549</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>345</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>160</v>
       </c>
@@ -4481,17 +4909,17 @@
         <v>1960</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>200</v>
       </c>
@@ -4502,13 +4930,13 @@
         <v>2342</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>346</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -4520,55 +4948,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="A3" sqref="A3:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -4579,14 +5007,14 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>193</v>
+        <v>347</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -4597,14 +5025,14 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>194</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -4615,14 +5043,14 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>194</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -4633,14 +5061,14 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>194</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -4651,14 +5079,14 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>197</v>
+        <v>347</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -4669,14 +5097,14 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>197</v>
+        <v>347</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -4687,14 +5115,14 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>197</v>
+        <v>347</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -4705,14 +5133,14 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>196</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -4723,14 +5151,14 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -4741,14 +5169,14 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4759,14 +5187,14 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -4777,14 +5205,14 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>202</v>
+        <v>349</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -4795,14 +5223,14 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>202</v>
+        <v>349</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -4813,14 +5241,14 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -4831,14 +5259,14 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -4849,14 +5277,14 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -4867,14 +5295,14 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>208</v>
+        <v>351</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -4885,14 +5313,14 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -4903,14 +5331,14 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>212</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -4921,14 +5349,14 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -4939,14 +5367,14 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>215</v>
+        <v>352</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>132</v>
       </c>
@@ -4957,14 +5385,14 @@
         <v>1549</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>160</v>
       </c>
@@ -4975,14 +5403,14 @@
         <v>1960</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>218</v>
+        <v>353</v>
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>200</v>
       </c>
@@ -4993,10 +5421,10 @@
         <v>2342</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -5008,69 +5436,69 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.37</v>
       </c>
@@ -5081,20 +5509,20 @@
         <v>4.2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -5105,20 +5533,20 @@
         <v>6.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -5129,20 +5557,20 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -5153,20 +5581,20 @@
         <v>16.8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -5177,20 +5605,20 @@
         <v>23.3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -5201,20 +5629,20 @@
         <v>32.4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -5225,20 +5653,20 @@
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -5249,20 +5677,20 @@
         <v>60.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -5273,20 +5701,20 @@
         <v>75.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7.5</v>
       </c>
@@ -5297,20 +5725,20 @@
         <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5321,20 +5749,20 @@
         <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>315</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -5345,20 +5773,20 @@
         <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>97</v>
+        <v>315</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>226</v>
+        <v>354</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>18.5</v>
       </c>
@@ -5369,20 +5797,20 @@
         <v>293</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -5393,20 +5821,20 @@
         <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>227</v>
+        <v>355</v>
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -5417,20 +5845,20 @@
         <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>324</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -5441,20 +5869,20 @@
         <v>492</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>281</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45</v>
       </c>
@@ -5465,20 +5893,20 @@
         <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>281</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>230</v>
+        <v>351</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>230</v>
+        <v>356</v>
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -5489,20 +5917,20 @@
         <v>745</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>231</v>
+        <v>357</v>
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -5513,20 +5941,20 @@
         <v>1107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>358</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>232</v>
+        <v>34</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>232</v>
+        <v>359</v>
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -5537,20 +5965,20 @@
         <v>1302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>232</v>
+        <v>34</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>232</v>
+        <v>359</v>
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>110</v>
       </c>
@@ -5561,16 +5989,16 @@
         <v>1319</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>233</v>
+        <v>360</v>
       </c>
       <c r="I23" s="1"/>
     </row>
